--- a/output_data/charts/shares-Marion.xlsx
+++ b/output_data/charts/shares-Marion.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -212,20 +212,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.485936464557385</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.399467708252319</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.250489238229039</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.110539508027389</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.313182564452466</c:v>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.008793914616780833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04729556646823462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +234,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +278,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.12094638318134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.34424251608052</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.53068850718927</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.04568440390945</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.85527564604116</c:v>
+                  <c:v>18.42736597578351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.38482970222446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.02241595238263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.78380162144385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.66024596602924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +305,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +349,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.936796822178733</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.923441592550049</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.273438882838579</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.332893689753341</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.289190777147349</c:v>
+                  <c:v>2.725843811008151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.856905226290018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.03326810370001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.016312713555822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.880041276549447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +376,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +420,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.8934480929923834</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8608142629079808</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5692937277700286</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5232379415865129</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.524550646291874</c:v>
+                  <c:v>8.773163432781356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.691312792581229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.818893428943487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.765026568522238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.438300780996906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +447,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +491,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.479483734588962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.500020826213994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.174701982880212</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.587257575306886</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.73677875131991</c:v>
+                  <c:v>2.742389167504178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.611552375706163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.37057463575287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.462296043760498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.386275699105298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +518,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +562,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.73626736281144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.78284192576151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.24906601862899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.63426110791612</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.14223066803092</c:v>
+                  <c:v>0.6783587526125835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6445710714317661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7071695216848752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7298949116011106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7266316575671943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +589,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +633,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.6783587526125835</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6445710714317661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7071695216848752</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7298949116011106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7266316575671943</c:v>
+                  <c:v>25.73626736281144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.78284192576151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.24906601862899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.63426110791612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.14223066803092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +660,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +704,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.742389167504178</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.611552375706163</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.37057463575287</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.462296043760498</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.386275699105298</c:v>
+                  <c:v>8.479483734588962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.500020826213994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.174701982880212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.587257575306886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.73677875131991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +731,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +775,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.773163432781356</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.691312792581229</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.818893428943487</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.765026568522238</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.438300780996906</c:v>
+                  <c:v>0.8934480929923834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8608142629079808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5692937277700286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5232379415865129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.524550646291874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +802,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +846,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.725843811008151</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.856905226290018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.03326810370001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.016312713555822</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.880041276549447</c:v>
+                  <c:v>2.936796822178733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.923441592550049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.273438882838579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.332893689753341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.289190777147349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +873,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +917,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.42736597578351</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.38482970222446</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.02241595238263</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.78380162144385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.66024596602924</c:v>
+                  <c:v>26.12094638318134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.34424251608052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.53068850718927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.04568440390945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.85527564604116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +944,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -993,14 +987,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.008793914616780833</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04729556646823462</c:v>
+                <c:pt idx="0">
+                  <c:v>2.485936464557385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.399467708252319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.250489238229039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.110539508027389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.313182564452466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,7 +1045,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1117,15 +1116,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1439,19 +1438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1499,76 +1486,76 @@
       <c r="A2" s="2">
         <v>2018</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
+        <v>18.42736597578351</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.725843811008151</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.773163432781356</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.742389167504178</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.6783587526125835</v>
+      </c>
+      <c r="H2" s="1">
+        <v>25.73626736281144</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.479483734588962</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.8934480929923834</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.936796822178733</v>
+      </c>
+      <c r="L2" s="1">
+        <v>26.12094638318134</v>
+      </c>
+      <c r="M2" s="1">
         <v>2.485936464557385</v>
-      </c>
-      <c r="C2" s="1">
-        <v>26.12094638318134</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.936796822178733</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.8934480929923834</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8.479483734588962</v>
-      </c>
-      <c r="G2" s="1">
-        <v>25.73626736281144</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.6783587526125835</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.742389167504178</v>
-      </c>
-      <c r="J2" s="1">
-        <v>8.773163432781356</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.725843811008151</v>
-      </c>
-      <c r="L2" s="1">
-        <v>18.42736597578351</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
+        <v>18.38482970222446</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.856905226290018</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.691312792581229</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.611552375706163</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.6445710714317661</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25.78284192576151</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8.500020826213994</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.8608142629079808</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.923441592550049</v>
+      </c>
+      <c r="L3" s="1">
+        <v>26.34424251608052</v>
+      </c>
+      <c r="M3" s="1">
         <v>2.399467708252319</v>
-      </c>
-      <c r="C3" s="1">
-        <v>26.34424251608052</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.923441592550049</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.8608142629079808</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8.500020826213994</v>
-      </c>
-      <c r="G3" s="1">
-        <v>25.78284192576151</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.6445710714317661</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.611552375706163</v>
-      </c>
-      <c r="J3" s="1">
-        <v>8.691312792581229</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2.856905226290018</v>
-      </c>
-      <c r="L3" s="1">
-        <v>18.38482970222446</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1576,40 +1563,40 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19.02241595238263</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.03326810370001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.818893428943487</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.37057463575287</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.7071695216848752</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25.24906601862899</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8.174701982880212</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5692937277700286</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.273438882838579</v>
+      </c>
+      <c r="L4" s="1">
+        <v>27.53068850718927</v>
+      </c>
+      <c r="M4" s="1">
         <v>2.250489238229039</v>
-      </c>
-      <c r="C4" s="1">
-        <v>27.53068850718927</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.273438882838579</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.5692937277700286</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.174701982880212</v>
-      </c>
-      <c r="G4" s="1">
-        <v>25.24906601862899</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.7071695216848752</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.37057463575287</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7.818893428943487</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3.03326810370001</v>
-      </c>
-      <c r="L4" s="1">
-        <v>19.02241595238263</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1617,40 +1604,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0.008793914616780833</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18.78380162144385</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.016312713555822</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.765026568522238</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.462296043760498</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.7298949116011106</v>
+      </c>
+      <c r="H5" s="1">
+        <v>25.63426110791612</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.587257575306886</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.5232379415865129</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.332893689753341</v>
+      </c>
+      <c r="L5" s="1">
+        <v>27.04568440390945</v>
+      </c>
+      <c r="M5" s="1">
         <v>2.110539508027389</v>
-      </c>
-      <c r="C5" s="1">
-        <v>27.04568440390945</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.332893689753341</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5232379415865129</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.587257575306886</v>
-      </c>
-      <c r="G5" s="1">
-        <v>25.63426110791612</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.7298949116011106</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.462296043760498</v>
-      </c>
-      <c r="J5" s="1">
-        <v>7.765026568522238</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3.016312713555822</v>
-      </c>
-      <c r="L5" s="1">
-        <v>18.78380162144385</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.008793914616780833</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1658,40 +1645,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.04729556646823462</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18.66024596602924</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.880041276549447</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.438300780996906</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.386275699105298</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.7266316575671943</v>
+      </c>
+      <c r="H6" s="1">
+        <v>24.14223066803092</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.73677875131991</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.524550646291874</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.289190777147349</v>
+      </c>
+      <c r="L6" s="1">
+        <v>26.85527564604116</v>
+      </c>
+      <c r="M6" s="1">
         <v>2.313182564452466</v>
-      </c>
-      <c r="C6" s="1">
-        <v>26.85527564604116</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.289190777147349</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.524550646291874</v>
-      </c>
-      <c r="F6" s="1">
-        <v>8.73677875131991</v>
-      </c>
-      <c r="G6" s="1">
-        <v>24.14223066803092</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.7266316575671943</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.386275699105298</v>
-      </c>
-      <c r="J6" s="1">
-        <v>7.438300780996906</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4.880041276549447</v>
-      </c>
-      <c r="L6" s="1">
-        <v>18.66024596602924</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.04729556646823462</v>
       </c>
     </row>
   </sheetData>
